--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_24.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_24.xlsx
@@ -508,148 +508,148 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_6</t>
+          <t>model_1_24_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997781004185228</v>
+        <v>0.9501845519720039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8252754821707935</v>
+        <v>0.7424472696999215</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8138850418790885</v>
+        <v>0.7375924705089594</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99914115728124</v>
+        <v>0.867827773744569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0009236629319148248</v>
+        <v>0.1746285802025332</v>
       </c>
       <c r="G2" t="n">
-        <v>1.168383655256332</v>
+        <v>1.722256293437902</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6657224136331841</v>
+        <v>0.9386165177266779</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002779489919231922</v>
+        <v>0.2658907272450772</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06779557736898438</v>
+        <v>1.542646748030737</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03039182343846491</v>
+        <v>0.4178858458987732</v>
       </c>
       <c r="L2" t="n">
-        <v>1.014201573214542</v>
+        <v>0.9321661984299627</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03087046427694319</v>
+        <v>0.4244671302390885</v>
       </c>
       <c r="N2" t="n">
-        <v>143.9743266903509</v>
+        <v>37.49018791876326</v>
       </c>
       <c r="O2" t="n">
-        <v>285.3094992335673</v>
+        <v>74.45477150698909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_4</t>
+          <t>model_1_24_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997853051760031</v>
+        <v>0.9503190111761312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8251800134094346</v>
+        <v>0.7386866534798606</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8142750255361081</v>
+        <v>0.7319511682503099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992208055141693</v>
+        <v>0.8518047048394221</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000893672936559022</v>
+        <v>0.1741572320396358</v>
       </c>
       <c r="G3" t="n">
-        <v>1.169022055303132</v>
+        <v>1.747403551417495</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6643274647045767</v>
+        <v>0.958795128804368</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002521722745247997</v>
+        <v>0.2981243179515999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06595581598472977</v>
+        <v>1.540358661787782</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02989436295623344</v>
+        <v>0.4173214972172363</v>
       </c>
       <c r="L3" t="n">
-        <v>1.013740468735804</v>
+        <v>0.9323492918143063</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03036516928939462</v>
+        <v>0.4238938936299591</v>
       </c>
       <c r="N3" t="n">
-        <v>144.0403413850054</v>
+        <v>37.49559351077178</v>
       </c>
       <c r="O3" t="n">
-        <v>285.3755139282218</v>
+        <v>74.4601770989976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_5</t>
+          <t>model_1_24_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997864629634404</v>
+        <v>0.9499726523515142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8251461697461058</v>
+        <v>0.7359219439537503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8140490633719519</v>
+        <v>0.7315574153098712</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999224962508302</v>
+        <v>0.8479272995861866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000888853615441551</v>
+        <v>0.1753713965644532</v>
       </c>
       <c r="G4" t="n">
-        <v>1.169248368035647</v>
+        <v>1.765891176748911</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6651357182637241</v>
+        <v>0.96020356024121</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002508269381746247</v>
+        <v>0.3059244899833115</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06677690398340018</v>
+        <v>1.536441703251067</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02981364814043311</v>
+        <v>0.4187736817953741</v>
       </c>
       <c r="L4" t="n">
-        <v>1.013666370339813</v>
+        <v>0.9318776542658916</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03028318329593066</v>
+        <v>0.4253689486635505</v>
       </c>
       <c r="N4" t="n">
-        <v>144.0511559961083</v>
+        <v>37.48169857560304</v>
       </c>
       <c r="O4" t="n">
-        <v>285.3863285393247</v>
+        <v>74.44628216382887</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997836301946518</v>
+        <v>0.9499787800433623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8250930697979706</v>
+        <v>0.7359019255039265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8145945294801185</v>
+        <v>0.7312442270041019</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992599452025819</v>
+        <v>0.8473448600232655</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009006450911506719</v>
+        <v>0.1753499158758373</v>
       </c>
       <c r="G5" t="n">
-        <v>1.16960344763333</v>
+        <v>1.76602504021506</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6631846176227547</v>
+        <v>0.9613238166512457</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002395054186490457</v>
+        <v>0.3070961830337268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06658510310487289</v>
+        <v>1.536514865681187</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03001074959328194</v>
+        <v>0.4187480338769811</v>
       </c>
       <c r="L5" t="n">
-        <v>1.013847667542287</v>
+        <v>0.931885998356919</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03048338889963268</v>
+        <v>0.4253428968160813</v>
       </c>
       <c r="N5" t="n">
-        <v>144.0247985669005</v>
+        <v>37.48194356429213</v>
       </c>
       <c r="O5" t="n">
-        <v>285.3599711101169</v>
+        <v>74.44652715251796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_2</t>
+          <t>model_1_24_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997787213955713</v>
+        <v>0.9499820875210498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8249238692466512</v>
+        <v>0.7358687920309049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8146910381826935</v>
+        <v>0.7309413209192469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992923001784485</v>
+        <v>0.8467695736448262</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0009210780983720243</v>
+        <v>0.1753383214778043</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1707348924991</v>
+        <v>1.76624660390172</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6628394115895399</v>
+        <v>0.9624072941532679</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002290343129047583</v>
+        <v>0.3082534860305138</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06801781739754424</v>
+        <v>1.53656135256536</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03034926849813722</v>
+        <v>0.418734189525771</v>
       </c>
       <c r="L6" t="n">
-        <v>1.014161830683435</v>
+        <v>0.9318905021563232</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03082723913884467</v>
+        <v>0.4253288344301789</v>
       </c>
       <c r="N6" t="n">
-        <v>143.9799314558806</v>
+        <v>37.48207581164807</v>
       </c>
       <c r="O6" t="n">
-        <v>285.315103999097</v>
+        <v>74.44665939987389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_7</t>
+          <t>model_1_24_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997634412344799</v>
+        <v>0.949950456503265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8248829016618846</v>
+        <v>0.7356275670004454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.813445741387663</v>
+        <v>0.7307873035113228</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9990047161317832</v>
+        <v>0.8462302600840809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009846821768472883</v>
+        <v>0.1754492043453642</v>
       </c>
       <c r="G7" t="n">
-        <v>1.171008842927072</v>
+        <v>1.767859676791142</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6672937660189069</v>
+        <v>0.9629582054909698</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003221057148248008</v>
+        <v>0.3093384225481341</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06446796428267847</v>
+        <v>1.536215552923033</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03137964590060392</v>
+        <v>0.4188665710526017</v>
       </c>
       <c r="L7" t="n">
-        <v>1.015139760993286</v>
+        <v>0.9318474301321056</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0318738439554007</v>
+        <v>0.4254633008337242</v>
       </c>
       <c r="N7" t="n">
-        <v>143.8463832639166</v>
+        <v>37.4808114237997</v>
       </c>
       <c r="O7" t="n">
-        <v>285.1815558071331</v>
+        <v>74.44539501202551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_8</t>
+          <t>model_1_24_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997417722127777</v>
+        <v>0.9496788793174182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8248010771068059</v>
+        <v>0.7338771985228755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8128068147137955</v>
+        <v>0.7296553320831143</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9987861952926194</v>
+        <v>0.84242588641377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001074880058176816</v>
+        <v>0.1764012210441435</v>
       </c>
       <c r="G8" t="n">
-        <v>1.171556004103651</v>
+        <v>1.779564398860358</v>
       </c>
       <c r="H8" t="n">
-        <v>0.669579169684234</v>
+        <v>0.9670072016541976</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003928260523593564</v>
+        <v>0.3169916770220059</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06381891244892546</v>
+        <v>1.533952336926166</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03278536347483151</v>
+        <v>0.4200014536214648</v>
       </c>
       <c r="L8" t="n">
-        <v>1.016526578382226</v>
+        <v>0.9314776229003142</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03330170017622034</v>
+        <v>0.4266160566685807</v>
       </c>
       <c r="N8" t="n">
-        <v>143.6710923948327</v>
+        <v>37.4699884268289</v>
       </c>
       <c r="O8" t="n">
-        <v>285.0062649380491</v>
+        <v>74.43457201505473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_9</t>
+          <t>model_1_24_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997069180290926</v>
+        <v>0.9496835888106084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8247082801109983</v>
+        <v>0.7338447648229695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8117832096982717</v>
+        <v>0.7284136119797266</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9985352966361891</v>
+        <v>0.840234379091007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001219961528262185</v>
+        <v>0.1763847118659302</v>
       </c>
       <c r="G9" t="n">
-        <v>1.172176538041908</v>
+        <v>1.779781283160973</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6732405454727337</v>
+        <v>0.9714487624649464</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00474024887846191</v>
+        <v>0.3214003299767219</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06734334406114875</v>
+        <v>1.535179985525319</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03492794766747948</v>
+        <v>0.4199817994460357</v>
       </c>
       <c r="L9" t="n">
-        <v>1.018757246138073</v>
+        <v>0.9314840358272115</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03547802792810409</v>
+        <v>0.4265960929595355</v>
       </c>
       <c r="N9" t="n">
-        <v>143.417871909891</v>
+        <v>37.47017561318397</v>
       </c>
       <c r="O9" t="n">
-        <v>284.7530444531074</v>
+        <v>74.43475920140979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_1</t>
+          <t>model_1_24_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997779962589896</v>
+        <v>0.9496671893472456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8246871485960021</v>
+        <v>0.7337435136828703</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8152795594864335</v>
+        <v>0.728169993218894</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993381657995564</v>
+        <v>0.8397124514732733</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0009240964987526379</v>
+        <v>0.1764422003582855</v>
       </c>
       <c r="G10" t="n">
-        <v>1.172317844579989</v>
+        <v>1.780458350001034</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6607343050104875</v>
+        <v>0.9723201726466175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002141907299385154</v>
+        <v>0.3224502912112424</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0673543224603477</v>
+        <v>1.535295121295599</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03039895555364753</v>
+        <v>0.4200502355174742</v>
       </c>
       <c r="L10" t="n">
-        <v>1.014208239424669</v>
+        <v>0.9314617046430578</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03087770871581044</v>
+        <v>0.4266656068306881</v>
       </c>
       <c r="N10" t="n">
-        <v>143.9733881117923</v>
+        <v>37.46952386592918</v>
       </c>
       <c r="O10" t="n">
-        <v>285.3085606550087</v>
+        <v>74.43410745415501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_0</t>
+          <t>model_1_24_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997724917140733</v>
+        <v>0.9495570321312954</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8244290687669159</v>
+        <v>0.7332090912518978</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8161003170219088</v>
+        <v>0.7263672448887881</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994098927543158</v>
+        <v>0.8360578503758525</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009470093139204664</v>
+        <v>0.1768283576444679</v>
       </c>
       <c r="G11" t="n">
-        <v>1.174043625585436</v>
+        <v>1.784032035257736</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6577985028963491</v>
+        <v>0.9787684988940519</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00190977591684415</v>
+        <v>0.3298022483592287</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06403801375619207</v>
+        <v>1.536406789555818</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03077351643736</v>
+        <v>0.4205096403704295</v>
       </c>
       <c r="L11" t="n">
-        <v>1.014560530299306</v>
+        <v>0.9313117033277214</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03125816855901787</v>
+        <v>0.4271322468508411</v>
       </c>
       <c r="N11" t="n">
-        <v>143.9244032592825</v>
+        <v>37.4651514954473</v>
       </c>
       <c r="O11" t="n">
-        <v>285.2595758024989</v>
+        <v>74.42973508367312</v>
       </c>
     </row>
   </sheetData>
